--- a/medicine/Sexualité et sexologie/Anneau_pénien/Anneau_pénien.xlsx
+++ b/medicine/Sexualité et sexologie/Anneau_pénien/Anneau_pénien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anneau_p%C3%A9nien</t>
+          <t>Anneau_pénien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un anneau pénien ou cockring (de l'anglais, traduisible en « anneau de queue ») est un anneau en métal, en caoutchouc, en silicone, ou bien en cuir, généralement à pressions. 
 Il est à placer à la base du sexe de l'homme avant érection, en vue de renforcer et de prolonger cette dernière et de retarder l'éjaculation pour accroître le plaisir au moment de l'orgasme. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anneau_p%C3%A9nien</t>
+          <t>Anneau_pénien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anneau pénien placé à la base du pénis, encercle ce dernier avec ou sans les testicules et bloque le reflux sanguin du corps spongieux, ayant pour effet de provoquer une érection plus forte et plus longue, tout en grossissant sensiblement la taille du sexe (les veines saillent et le gland est plus gonflé).
 Il se met en place sur le pénis au repos et son diamètre doit être adapté de façon à ne pas trop serrer lorsque le pénis est en érection.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anneau_p%C3%A9nien</t>
+          <t>Anneau_pénien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le port prolongé de l'anneau pénien peut présenter un danger aux conséquences identiques à celles induites par le priapisme : la circulation sanguine étant amoindrie par l'effet garrot, se présente un risque d'hypoxie des tissus, voire de nécrose et de gangrène[1]. Cela peut aboutir à l'amputation du pénis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le port prolongé de l'anneau pénien peut présenter un danger aux conséquences identiques à celles induites par le priapisme : la circulation sanguine étant amoindrie par l'effet garrot, se présente un risque d'hypoxie des tissus, voire de nécrose et de gangrène. Cela peut aboutir à l'amputation du pénis.
 Le gonflement des veines peut également conduire à leur éclatement provoquant des hématomes. Du fait de la pression occasionnée sur le pourtour de la verge, la propulsion de l'éjaculation peut être également amoindrie.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anneau_p%C3%A9nien</t>
+          <t>Anneau_pénien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Anneau pénien et vacuum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre d'une rééducation pénienne contre la dysfonction érectile, l'anneau pénien que l'on appelle également anneau de constriction, aide à maintenir l'érection pour permettre un rapport sexuel satisfaisant. Il s'utilise en complément du vacuum, alias « pompe à pénis ». Une fois le cylindre de la pompe enlevé[2], l'anneau va aider le pénis à rester en érection. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre d'une rééducation pénienne contre la dysfonction érectile, l'anneau pénien que l'on appelle également anneau de constriction, aide à maintenir l'érection pour permettre un rapport sexuel satisfaisant. Il s'utilise en complément du vacuum, alias « pompe à pénis ». Une fois le cylindre de la pompe enlevé, l'anneau va aider le pénis à rester en érection. 
 Le port de l'anneau pénien doit être limité à 30 minutes afin d'éviter une atteinte aux tissus du pénis, telle que celles causées par le priapisme (cf. supra). 
 </t>
         </is>
